--- a/Servo_Controller/Docs/Manufacturing data/JLCSMT_CPL1.xlsx
+++ b/Servo_Controller/Docs/Manufacturing data/JLCSMT_CPL1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="102">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -235,16 +235,10 @@
     <t xml:space="preserve">-2.680000</t>
   </si>
   <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.500000</t>
+    <t xml:space="preserve">R2</t>
   </si>
   <si>
     <t xml:space="preserve">-4.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
   </si>
   <si>
     <t xml:space="preserve">R3</t>
@@ -471,7 +465,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -896,10 +890,10 @@
         <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
@@ -910,19 +904,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,24 +927,24 @@
         <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
@@ -961,19 +955,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,16 +975,16 @@
         <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,13 +995,13 @@
         <v>84</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,7 +1012,7 @@
         <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>8</v>
@@ -1029,30 +1023,30 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
@@ -1069,13 +1063,13 @@
         <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,7 +1080,7 @@
         <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>8</v>
@@ -1097,13 +1091,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
@@ -1114,13 +1108,13 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
@@ -1129,23 +1123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1189,8 +1167,8 @@
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
